--- a/Backend/Excel/Cost Of Attendence.xlsx
+++ b/Backend/Excel/Cost Of Attendence.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771E9E8B-C043-F743-BE50-117D60EB9ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A82A7-85FD-784E-A15A-FAAF262A46FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{8C415C9C-9863-7D4B-B096-7AD110CE2008}"/>
   </bookViews>
   <sheets>
     <sheet name="COA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,21 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Tuition and fees</t>
-  </si>
-  <si>
-    <t>Books and supplies</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>YEAR</t>
   </si>
   <si>
-    <t>Room and Board</t>
+    <t>tuitionandfees</t>
   </si>
   <si>
-    <t>Other Expenses</t>
+    <t>booksAndSupplies</t>
+  </si>
+  <si>
+    <t>roomAndBoard</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -102,12 +105,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BAAC76-F493-2D4E-94D9-B0E0202B5ADD}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,15 +441,15 @@
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -453,8 +457,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2010</v>
       </c>
@@ -470,8 +477,12 @@
       <c r="E2" s="1">
         <v>3350</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3">
+        <f>SUM(B2:E2)</f>
+        <v>31694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2011</v>
       </c>
@@ -487,8 +498,12 @@
       <c r="E3" s="1">
         <v>3350</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F14" si="0">SUM(B3:E3)</f>
+        <v>33304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2012</v>
       </c>
@@ -504,8 +519,12 @@
       <c r="E4" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>35148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2013</v>
       </c>
@@ -521,8 +540,12 @@
       <c r="E5" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>35899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2014</v>
       </c>
@@ -538,8 +561,12 @@
       <c r="E6" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>36618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2015</v>
       </c>
@@ -555,8 +582,12 @@
       <c r="E7" s="1">
         <v>5256</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>38831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2016</v>
       </c>
@@ -572,8 +603,12 @@
       <c r="E8" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>39170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2017</v>
       </c>
@@ -589,8 +624,12 @@
       <c r="E9" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>37070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2018</v>
       </c>
@@ -606,8 +645,12 @@
       <c r="E10" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>37070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2019</v>
       </c>
@@ -623,8 +666,12 @@
       <c r="E11" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>37954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2020</v>
       </c>
@@ -640,8 +687,12 @@
       <c r="E12" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>38044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
@@ -657,8 +708,12 @@
       <c r="E13" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>39206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2022</v>
       </c>
@@ -673,6 +728,10 @@
       </c>
       <c r="E14" s="1">
         <v>3200</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>40278</v>
       </c>
     </row>
   </sheetData>
